--- a/Logged Data/Vocales.xlsx
+++ b/Logged Data/Vocales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Documents\GitHub\Sign-Lenguage-to-speech-Glove\Logged Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E8795-0EA7-407D-A24C-DB48D977BF86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97807464-9C1C-470B-8F73-25F03415E53E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="5328" windowWidth="13008" windowHeight="10512" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView topLeftCell="D286" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -530,16 +530,16 @@
         <v>0.85440000000000005</v>
       </c>
       <c r="C1" s="27">
-        <v>0.99139999999999995</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E1" s="27">
-        <v>0.95379999999999998</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="G1" s="27">
-        <v>0.99139999999999995</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="I1" s="27">
-        <v>0.99339999999999995</v>
+        <v>0.54449999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -547,16 +547,16 @@
         <v>0.85389999999999999</v>
       </c>
       <c r="C2" s="27">
-        <v>0.99580000000000002</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E2" s="27">
-        <v>0.93230000000000002</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="G2" s="27">
-        <v>0.99580000000000002</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="I2" s="27">
-        <v>0.99680000000000002</v>
+        <v>0.54790000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -564,16 +564,16 @@
         <v>0.85929999999999995</v>
       </c>
       <c r="C3" s="27">
-        <v>0.99560000000000004</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E3" s="27">
-        <v>0.94869999999999999</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="G3" s="27">
-        <v>0.99560000000000004</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="I3" s="27">
-        <v>1</v>
+        <v>0.54790000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -581,33 +581,33 @@
         <v>0.85640000000000005</v>
       </c>
       <c r="C4" s="27">
-        <v>0.99119999999999997</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E4" s="27">
-        <v>0.9506</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="G4" s="27">
-        <v>0.99119999999999997</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="I4" s="27">
-        <v>0</v>
+        <v>0.54790000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="27">
-        <v>0.55820000000000003</v>
+        <v>0.86860000000000004</v>
       </c>
       <c r="C5" s="27">
-        <v>0</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E5" s="27">
         <v>0.53349999999999997</v>
       </c>
       <c r="G5" s="27">
-        <v>0</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="I5" s="27">
-        <v>0</v>
+        <v>0.54790000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -5611,23 +5611,99 @@
     <row r="301" spans="1:9" ht="15.75" customHeight="1">
       <c r="A301">
         <f>AVERAGE(A1:A299)</f>
-        <v>0.85599272240802682</v>
+        <v>0.85703084949832775</v>
       </c>
       <c r="C301">
         <f t="shared" ref="C301:I301" si="0">AVERAGE(C1:C299)</f>
-        <v>0.59644615384615407</v>
+        <v>0.59286923076923104</v>
       </c>
       <c r="E301">
         <f t="shared" si="0"/>
-        <v>0.59426153846153851</v>
+        <v>0.58873846153846143</v>
       </c>
       <c r="G301">
         <f>AVERAGE(G1:G299)</f>
-        <v>0.59644615384615407</v>
+        <v>0.59286923076923104</v>
       </c>
       <c r="I301">
         <f t="shared" si="0"/>
-        <v>0.56785384615384615</v>
+        <v>0.56700401337792627</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A302">
+        <f>MAX(A1:A299)</f>
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="B302">
+        <f t="shared" ref="B302:I302" si="1">MAX(B1:B299)</f>
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="1"/>
+        <v>0.6532</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="1"/>
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="1"/>
+        <v>0.6532</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="1"/>
+        <v>0.63219999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A303">
+        <f>MIN(A1:A299)</f>
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="B303">
+        <f t="shared" ref="B303:I303" si="2">MIN(B1:B299)</f>
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="2"/>
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="2"/>
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="2"/>
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="2"/>
+        <v>0.50760000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -26142,7 +26218,7 @@
         <v>0.71653916387959959</v>
       </c>
       <c r="C301">
-        <f t="shared" ref="B301:I301" si="0">AVERAGE(C1:C299)</f>
+        <f t="shared" ref="C301:I301" si="0">AVERAGE(C1:C299)</f>
         <v>0.99899665551839456</v>
       </c>
       <c r="E301">
@@ -26170,7 +26246,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
